--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_T45_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_T45_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.546146678731126</v>
+        <v>0.5019577983990334</v>
       </c>
       <c r="C2">
-        <v>0.546146678731126</v>
+        <v>0.5019577983990334</v>
       </c>
       <c r="D2">
-        <v>0.3706547201795419</v>
+        <v>0.3105127224087574</v>
       </c>
       <c r="E2">
-        <v>0.6088141918348667</v>
+        <v>0.5572366843709748</v>
       </c>
       <c r="F2">
-        <v>0.2784751697519821</v>
+        <v>0.251107588723997</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3070856474631161</v>
+        <v>0.3307979378781269</v>
       </c>
       <c r="C3">
-        <v>0.3070856474631161</v>
+        <v>0.3343319746521877</v>
       </c>
       <c r="D3">
-        <v>0.1186079915109186</v>
+        <v>0.1645692088094062</v>
       </c>
       <c r="E3">
-        <v>0.3443951095920478</v>
+        <v>0.4056713063668741</v>
       </c>
       <c r="F3">
-        <v>0.1617903564833405</v>
+        <v>0.244411730890862</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.235791455158233</v>
+        <v>0.2377396291553046</v>
       </c>
       <c r="C4">
-        <v>0.2409394054473722</v>
+        <v>0.2452017974494533</v>
       </c>
       <c r="D4">
-        <v>0.08982400062291519</v>
+        <v>0.09171268429751143</v>
       </c>
       <c r="E4">
-        <v>0.2997065241580757</v>
+        <v>0.3028410214906683</v>
       </c>
       <c r="F4">
-        <v>0.1925580159035662</v>
+        <v>0.1959384495933066</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3438942213616346</v>
+        <v>0.373625158811909</v>
       </c>
       <c r="C5">
-        <v>0.3438942213616346</v>
+        <v>0.373625158811909</v>
       </c>
       <c r="D5">
-        <v>0.1608659895464369</v>
+        <v>0.1693451806315346</v>
       </c>
       <c r="E5">
-        <v>0.4010810261610949</v>
+        <v>0.4115157112815191</v>
       </c>
       <c r="F5">
-        <v>0.2155823084169401</v>
+        <v>0.1808987657993869</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3554346146561582</v>
+        <v>0.3392289017490621</v>
       </c>
       <c r="C6">
-        <v>0.3554346146561582</v>
+        <v>0.3392289017490621</v>
       </c>
       <c r="D6">
-        <v>0.166620911117176</v>
+        <v>0.1435050013861421</v>
       </c>
       <c r="E6">
-        <v>0.4081922477426244</v>
+        <v>0.3788205398155466</v>
       </c>
       <c r="F6">
-        <v>0.2105133259524082</v>
+        <v>0.1777287371382058</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3119807990786818</v>
+        <v>0.323658031409521</v>
       </c>
       <c r="C7">
-        <v>0.3119807990786818</v>
+        <v>0.323658031409521</v>
       </c>
       <c r="D7">
-        <v>0.1298725105494941</v>
+        <v>0.1411500930911699</v>
       </c>
       <c r="E7">
-        <v>0.3603782881216544</v>
+        <v>0.3756994717738766</v>
       </c>
       <c r="F7">
-        <v>0.1901475788133503</v>
+        <v>0.202348754060147</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.342631818604201</v>
+        <v>0.3534922319734252</v>
       </c>
       <c r="C8">
-        <v>0.342631818604201</v>
+        <v>0.3534922319734252</v>
       </c>
       <c r="D8">
-        <v>0.1511607671542049</v>
+        <v>0.1628866010887078</v>
       </c>
       <c r="E8">
-        <v>0.3887939906354069</v>
+        <v>0.4035921221836568</v>
       </c>
       <c r="F8">
-        <v>0.1948967150530138</v>
+        <v>0.2082027666157719</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3542225829761536</v>
+        <v>0.3545941574938994</v>
       </c>
       <c r="C9">
-        <v>0.3542225829761536</v>
+        <v>0.3545941574938994</v>
       </c>
       <c r="D9">
-        <v>0.162709113486236</v>
+        <v>0.1673332494109491</v>
       </c>
       <c r="E9">
-        <v>0.4033721773824218</v>
+        <v>0.4090638695985617</v>
       </c>
       <c r="F9">
-        <v>0.2062882177812338</v>
+        <v>0.2202928468255327</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3488257250224557</v>
+        <v>0.3114747142229594</v>
       </c>
       <c r="C10">
-        <v>0.3488257250224557</v>
+        <v>0.3114747142229594</v>
       </c>
       <c r="D10">
-        <v>0.1632182784925353</v>
+        <v>0.1227287858089793</v>
       </c>
       <c r="E10">
-        <v>0.4040028199066626</v>
+        <v>0.3503266844089661</v>
       </c>
       <c r="F10">
-        <v>0.2201409565050135</v>
+        <v>0.1756551902177846</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3139331037724223</v>
+        <v>0.3600284238150658</v>
       </c>
       <c r="C11">
-        <v>0.3139331037724223</v>
+        <v>0.3600284238150658</v>
       </c>
       <c r="D11">
-        <v>0.1244752993284096</v>
+        <v>0.1554279835465356</v>
       </c>
       <c r="E11">
-        <v>0.352810571452174</v>
+        <v>0.3942435586620733</v>
       </c>
       <c r="F11">
-        <v>0.1763677034523832</v>
+        <v>0.1796090114379531</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_T45_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_T45_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5019577983990334</v>
+        <v>0.546146678731126</v>
       </c>
       <c r="C2">
-        <v>0.5019577983990334</v>
+        <v>0.546146678731126</v>
       </c>
       <c r="D2">
-        <v>0.3105127224087574</v>
+        <v>0.3706547201795419</v>
       </c>
       <c r="E2">
-        <v>0.5572366843709748</v>
+        <v>0.6088141918348667</v>
       </c>
       <c r="F2">
-        <v>0.251107588723997</v>
+        <v>0.2784751697519821</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3307979378781269</v>
+        <v>0.3070856474631161</v>
       </c>
       <c r="C3">
-        <v>0.3343319746521877</v>
+        <v>0.3070856474631161</v>
       </c>
       <c r="D3">
-        <v>0.1645692088094062</v>
+        <v>0.1186079915109186</v>
       </c>
       <c r="E3">
-        <v>0.4056713063668741</v>
+        <v>0.3443951095920478</v>
       </c>
       <c r="F3">
-        <v>0.244411730890862</v>
+        <v>0.1617903564833405</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2377396291553046</v>
+        <v>0.235791455158233</v>
       </c>
       <c r="C4">
-        <v>0.2452017974494533</v>
+        <v>0.2409394054473722</v>
       </c>
       <c r="D4">
-        <v>0.09171268429751143</v>
+        <v>0.08982400062291519</v>
       </c>
       <c r="E4">
-        <v>0.3028410214906683</v>
+        <v>0.2997065241580757</v>
       </c>
       <c r="F4">
-        <v>0.1959384495933066</v>
+        <v>0.1925580159035662</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.373625158811909</v>
+        <v>0.3438942213616346</v>
       </c>
       <c r="C5">
-        <v>0.373625158811909</v>
+        <v>0.3438942213616346</v>
       </c>
       <c r="D5">
-        <v>0.1693451806315346</v>
+        <v>0.1608659895464369</v>
       </c>
       <c r="E5">
-        <v>0.4115157112815191</v>
+        <v>0.4010810261610949</v>
       </c>
       <c r="F5">
-        <v>0.1808987657993869</v>
+        <v>0.2155823084169401</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3392289017490621</v>
+        <v>0.3554346146561582</v>
       </c>
       <c r="C6">
-        <v>0.3392289017490621</v>
+        <v>0.3554346146561582</v>
       </c>
       <c r="D6">
-        <v>0.1435050013861421</v>
+        <v>0.166620911117176</v>
       </c>
       <c r="E6">
-        <v>0.3788205398155466</v>
+        <v>0.4081922477426244</v>
       </c>
       <c r="F6">
-        <v>0.1777287371382058</v>
+        <v>0.2105133259524082</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.323658031409521</v>
+        <v>0.3119807990786818</v>
       </c>
       <c r="C7">
-        <v>0.323658031409521</v>
+        <v>0.3119807990786818</v>
       </c>
       <c r="D7">
-        <v>0.1411500930911699</v>
+        <v>0.1298725105494941</v>
       </c>
       <c r="E7">
-        <v>0.3756994717738766</v>
+        <v>0.3603782881216544</v>
       </c>
       <c r="F7">
-        <v>0.202348754060147</v>
+        <v>0.1901475788133503</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3534922319734252</v>
+        <v>0.342631818604201</v>
       </c>
       <c r="C8">
-        <v>0.3534922319734252</v>
+        <v>0.342631818604201</v>
       </c>
       <c r="D8">
-        <v>0.1628866010887078</v>
+        <v>0.1511607671542049</v>
       </c>
       <c r="E8">
-        <v>0.4035921221836568</v>
+        <v>0.3887939906354069</v>
       </c>
       <c r="F8">
-        <v>0.2082027666157719</v>
+        <v>0.1948967150530138</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3545941574938994</v>
+        <v>0.3542225829761536</v>
       </c>
       <c r="C9">
-        <v>0.3545941574938994</v>
+        <v>0.3542225829761536</v>
       </c>
       <c r="D9">
-        <v>0.1673332494109491</v>
+        <v>0.162709113486236</v>
       </c>
       <c r="E9">
-        <v>0.4090638695985617</v>
+        <v>0.4033721773824218</v>
       </c>
       <c r="F9">
-        <v>0.2202928468255327</v>
+        <v>0.2062882177812338</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3114747142229594</v>
+        <v>0.3488257250224557</v>
       </c>
       <c r="C10">
-        <v>0.3114747142229594</v>
+        <v>0.3488257250224557</v>
       </c>
       <c r="D10">
-        <v>0.1227287858089793</v>
+        <v>0.1632182784925353</v>
       </c>
       <c r="E10">
-        <v>0.3503266844089661</v>
+        <v>0.4040028199066626</v>
       </c>
       <c r="F10">
-        <v>0.1756551902177846</v>
+        <v>0.2201409565050135</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3600284238150658</v>
+        <v>0.3139331037724223</v>
       </c>
       <c r="C11">
-        <v>0.3600284238150658</v>
+        <v>0.3139331037724223</v>
       </c>
       <c r="D11">
-        <v>0.1554279835465356</v>
+        <v>0.1244752993284096</v>
       </c>
       <c r="E11">
-        <v>0.3942435586620733</v>
+        <v>0.352810571452174</v>
       </c>
       <c r="F11">
-        <v>0.1796090114379531</v>
+        <v>0.1763677034523832</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
